--- a/PFOA inhalation Rat/Data/PFOA_female_feces_ORAL_Lupton_2020.xlsx
+++ b/PFOA inhalation Rat/Data/PFOA_female_feces_ORAL_Lupton_2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dpjio\Documents\GitHub\PFAS_PBK_models\PFOA inhalation Rat\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976E8034-6A86-4409-882B-076C26018B41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72AE63D1-09D2-4977-B3B9-F25612E631B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="8">
   <si>
     <t>Type</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>Tissue</t>
+  </si>
+  <si>
+    <t>Cumulative Concentration_microg_per_g_organ</t>
   </si>
 </sst>
 </file>
@@ -428,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -440,9 +443,11 @@
     <col min="3" max="3" width="33.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.109375" customWidth="1"/>
+    <col min="8" max="8" width="31" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -458,8 +463,14 @@
       <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -475,8 +486,14 @@
       <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H2" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="I2" s="1">
+        <v>5.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -492,8 +509,15 @@
       <c r="E3" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H3" s="1">
+        <v>6.4899999999999999E-2</v>
+      </c>
+      <c r="I3" s="1">
+        <f>H3+H2</f>
+        <v>0.1169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -509,8 +533,15 @@
       <c r="E4" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H4" s="1">
+        <v>7.2800000000000004E-2</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" ref="I4:I18" si="0">H4+H3</f>
+        <v>0.13769999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -526,8 +557,15 @@
       <c r="E5" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H5" s="1">
+        <v>8.1699999999999995E-2</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1545</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -543,8 +581,15 @@
       <c r="E6" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H6" s="1">
+        <v>8.77E-2</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1694</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -560,8 +605,15 @@
       <c r="E7" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H7" s="1">
+        <v>7.7799999999999994E-2</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.16549999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -577,8 +629,15 @@
       <c r="E8" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H8" s="1">
+        <v>7.5800000000000006E-2</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.15360000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
@@ -594,8 +653,15 @@
       <c r="E9" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H9" s="1">
+        <v>7.1800000000000003E-2</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.14760000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
@@ -611,8 +677,15 @@
       <c r="E10" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H10" s="1">
+        <v>7.4800000000000005E-2</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.14660000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -628,8 +701,15 @@
       <c r="E11" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H11" s="1">
+        <v>7.3800000000000004E-2</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.14860000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
@@ -645,8 +725,15 @@
       <c r="E12" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H12" s="1">
+        <v>9.1600000000000001E-2</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.16539999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
@@ -662,8 +749,15 @@
       <c r="E13" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H13" s="1">
+        <v>7.9799999999999996E-2</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1714</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -679,8 +773,15 @@
       <c r="E14" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H14" s="1">
+        <v>8.3699999999999997E-2</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.16349999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -696,8 +797,15 @@
       <c r="E15" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H15" s="1">
+        <v>8.5699999999999998E-2</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1694</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
@@ -713,8 +821,15 @@
       <c r="E16" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H16" s="1">
+        <v>7.0800000000000002E-2</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="0"/>
+        <v>0.1565</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
@@ -730,8 +845,15 @@
       <c r="E17" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H17" s="1">
+        <v>1.6299999999999999E-2</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="0"/>
+        <v>8.7099999999999997E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
@@ -747,8 +869,15 @@
       <c r="E18" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>

--- a/PFOA inhalation Rat/Data/PFOA_female_feces_ORAL_Lupton_2020.xlsx
+++ b/PFOA inhalation Rat/Data/PFOA_female_feces_ORAL_Lupton_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dpjio\Documents\GitHub\PFAS_PBK_models\PFOA inhalation Rat\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72AE63D1-09D2-4977-B3B9-F25612E631B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D7189A-C003-4D12-BEC4-5E14A51BDE93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -434,7 +434,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -537,8 +537,8 @@
         <v>7.2800000000000004E-2</v>
       </c>
       <c r="I4" s="1">
-        <f t="shared" ref="I4:I18" si="0">H4+H3</f>
-        <v>0.13769999999999999</v>
+        <f>I3+H4</f>
+        <v>0.18970000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -561,8 +561,8 @@
         <v>8.1699999999999995E-2</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" si="0"/>
-        <v>0.1545</v>
+        <f t="shared" ref="I5:I18" si="0">I4+H5</f>
+        <v>0.27139999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -585,8 +585,8 @@
         <v>8.77E-2</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" si="0"/>
-        <v>0.1694</v>
+        <f>I5+H6</f>
+        <v>0.35909999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -609,8 +609,8 @@
         <v>7.7799999999999994E-2</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" si="0"/>
-        <v>0.16549999999999998</v>
+        <f>I6+H7</f>
+        <v>0.43689999999999996</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -633,8 +633,8 @@
         <v>7.5800000000000006E-2</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" si="0"/>
-        <v>0.15360000000000001</v>
+        <f>I7+H8</f>
+        <v>0.51269999999999993</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -658,7 +658,7 @@
       </c>
       <c r="I9" s="1">
         <f t="shared" si="0"/>
-        <v>0.14760000000000001</v>
+        <v>0.58449999999999991</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -682,7 +682,7 @@
       </c>
       <c r="I10" s="1">
         <f t="shared" si="0"/>
-        <v>0.14660000000000001</v>
+        <v>0.65929999999999989</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -706,7 +706,7 @@
       </c>
       <c r="I11" s="1">
         <f t="shared" si="0"/>
-        <v>0.14860000000000001</v>
+        <v>0.73309999999999986</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -730,7 +730,7 @@
       </c>
       <c r="I12" s="1">
         <f t="shared" si="0"/>
-        <v>0.16539999999999999</v>
+        <v>0.82469999999999988</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -754,7 +754,7 @@
       </c>
       <c r="I13" s="1">
         <f t="shared" si="0"/>
-        <v>0.1714</v>
+        <v>0.90449999999999986</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -778,7 +778,7 @@
       </c>
       <c r="I14" s="1">
         <f t="shared" si="0"/>
-        <v>0.16349999999999998</v>
+        <v>0.98819999999999986</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -802,7 +802,7 @@
       </c>
       <c r="I15" s="1">
         <f t="shared" si="0"/>
-        <v>0.1694</v>
+        <v>1.0738999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -825,8 +825,8 @@
         <v>7.0800000000000002E-2</v>
       </c>
       <c r="I16" s="1">
-        <f t="shared" si="0"/>
-        <v>0.1565</v>
+        <f>I15+H16</f>
+        <v>1.1446999999999998</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -850,7 +850,7 @@
       </c>
       <c r="I17" s="1">
         <f t="shared" si="0"/>
-        <v>8.7099999999999997E-2</v>
+        <v>1.1609999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -874,7 +874,7 @@
       </c>
       <c r="I18" s="1">
         <f t="shared" si="0"/>
-        <v>1.6299999999999999E-2</v>
+        <v>1.1609999999999998</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
